--- a/BackCheck-VariableMatching.xlsx
+++ b/BackCheck-VariableMatching.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NicolasGreliche\Dropbox (SSD)\Nicolas\for others\Jane\BRCiS-dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{30EC252B-D933-49A3-B5D2-631F5E865C26}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77A9681A-8626-4AC3-B07D-6F84755658D5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{072C4CE4-0599-456B-88A7-17362C83FFD0}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{072C4CE4-0599-456B-88A7-17362C83FFD0}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="129">
   <si>
     <t>Midline Variable</t>
   </si>
@@ -416,6 +416,12 @@
   </si>
   <si>
     <t>Totals</t>
+  </si>
+  <si>
+    <t>AreaTargetHH</t>
+  </si>
+  <si>
+    <t>PartTargetHH</t>
   </si>
 </sst>
 </file>
@@ -459,12 +465,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -494,7 +506,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -514,6 +526,8 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1160,10 +1174,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0830F32-216A-4C33-A53D-E91A634A971C}">
-  <dimension ref="A3:G47"/>
+  <dimension ref="A3:I47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1176,7 +1190,7 @@
     <col min="7" max="7" width="11.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>60</v>
       </c>
@@ -1199,7 +1213,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>65</v>
       </c>
@@ -1218,11 +1232,17 @@
       <c r="F4" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="I4" s="9" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>70</v>
       </c>
@@ -1241,11 +1261,17 @@
       <c r="F5" s="8">
         <v>110</v>
       </c>
-      <c r="G5" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G5" s="10">
+        <v>50</v>
+      </c>
+      <c r="H5" s="10">
+        <v>50</v>
+      </c>
+      <c r="I5" s="10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>70</v>
       </c>
@@ -1264,11 +1290,17 @@
       <c r="F6" s="8">
         <v>110</v>
       </c>
-      <c r="G6" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G6" s="10">
+        <v>50</v>
+      </c>
+      <c r="H6" s="10">
+        <v>50</v>
+      </c>
+      <c r="I6" s="10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>70</v>
       </c>
@@ -1287,11 +1319,17 @@
       <c r="F7" s="8">
         <v>111</v>
       </c>
-      <c r="G7" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G7" s="10">
+        <v>50</v>
+      </c>
+      <c r="H7" s="10">
+        <v>50</v>
+      </c>
+      <c r="I7" s="10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>70</v>
       </c>
@@ -1310,11 +1348,17 @@
       <c r="F8" s="8">
         <v>110</v>
       </c>
-      <c r="G8" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G8" s="10">
+        <v>50</v>
+      </c>
+      <c r="H8" s="10">
+        <v>50</v>
+      </c>
+      <c r="I8" s="10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>77</v>
       </c>
@@ -1333,11 +1377,17 @@
       <c r="F9" s="8">
         <v>110</v>
       </c>
-      <c r="G9" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G9" s="10">
+        <v>50</v>
+      </c>
+      <c r="H9" s="10">
+        <v>50</v>
+      </c>
+      <c r="I9" s="10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>77</v>
       </c>
@@ -1356,11 +1406,17 @@
       <c r="F10" s="8">
         <v>113</v>
       </c>
-      <c r="G10" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G10" s="10">
+        <v>50</v>
+      </c>
+      <c r="H10" s="10">
+        <v>50</v>
+      </c>
+      <c r="I10" s="10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>77</v>
       </c>
@@ -1379,11 +1435,17 @@
       <c r="F11" s="8">
         <v>110</v>
       </c>
-      <c r="G11" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G11" s="10">
+        <v>50</v>
+      </c>
+      <c r="H11" s="10">
+        <v>50</v>
+      </c>
+      <c r="I11" s="10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>77</v>
       </c>
@@ -1402,11 +1464,17 @@
       <c r="F12" s="8">
         <v>110</v>
       </c>
-      <c r="G12" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G12" s="10">
+        <v>50</v>
+      </c>
+      <c r="H12" s="10">
+        <v>50</v>
+      </c>
+      <c r="I12" s="10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>85</v>
       </c>
@@ -1425,11 +1493,17 @@
       <c r="F13" s="8">
         <v>109</v>
       </c>
-      <c r="G13" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G13" s="10">
+        <v>50</v>
+      </c>
+      <c r="H13" s="10">
+        <v>50</v>
+      </c>
+      <c r="I13" s="10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>85</v>
       </c>
@@ -1448,11 +1522,17 @@
       <c r="F14" s="8">
         <v>110</v>
       </c>
-      <c r="G14" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G14" s="10">
+        <v>50</v>
+      </c>
+      <c r="H14" s="10">
+        <v>50</v>
+      </c>
+      <c r="I14" s="10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>85</v>
       </c>
@@ -1471,11 +1551,17 @@
       <c r="F15" s="8">
         <v>110</v>
       </c>
-      <c r="G15" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G15" s="10">
+        <v>50</v>
+      </c>
+      <c r="H15" s="10">
+        <v>50</v>
+      </c>
+      <c r="I15" s="10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>85</v>
       </c>
@@ -1494,11 +1580,17 @@
       <c r="F16" s="8">
         <v>110</v>
       </c>
-      <c r="G16" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G16" s="10">
+        <v>50</v>
+      </c>
+      <c r="H16" s="10">
+        <v>50</v>
+      </c>
+      <c r="I16" s="10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>85</v>
       </c>
@@ -1517,11 +1609,17 @@
       <c r="F17" s="8">
         <v>120</v>
       </c>
-      <c r="G17" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G17" s="10">
+        <v>50</v>
+      </c>
+      <c r="H17" s="10">
+        <v>50</v>
+      </c>
+      <c r="I17" s="10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>85</v>
       </c>
@@ -1540,11 +1638,17 @@
       <c r="F18" s="8">
         <v>110</v>
       </c>
-      <c r="G18" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G18" s="10">
+        <v>50</v>
+      </c>
+      <c r="H18" s="10">
+        <v>50</v>
+      </c>
+      <c r="I18" s="10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>85</v>
       </c>
@@ -1563,11 +1667,17 @@
       <c r="F19" s="8">
         <v>110</v>
       </c>
-      <c r="G19" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G19" s="10">
+        <v>50</v>
+      </c>
+      <c r="H19" s="10">
+        <v>50</v>
+      </c>
+      <c r="I19" s="10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>85</v>
       </c>
@@ -1586,11 +1696,17 @@
       <c r="F20" s="8">
         <v>110</v>
       </c>
-      <c r="G20" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G20" s="10">
+        <v>50</v>
+      </c>
+      <c r="H20" s="10">
+        <v>50</v>
+      </c>
+      <c r="I20" s="10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>85</v>
       </c>
@@ -1609,11 +1725,17 @@
       <c r="F21" s="8">
         <v>110</v>
       </c>
-      <c r="G21" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G21" s="10">
+        <v>50</v>
+      </c>
+      <c r="H21" s="10">
+        <v>50</v>
+      </c>
+      <c r="I21" s="10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
         <v>96</v>
       </c>
@@ -1632,11 +1754,17 @@
       <c r="F22" s="8">
         <v>110</v>
       </c>
-      <c r="G22" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G22" s="10">
+        <v>50</v>
+      </c>
+      <c r="H22" s="10">
+        <v>50</v>
+      </c>
+      <c r="I22" s="10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
         <v>99</v>
       </c>
@@ -1655,11 +1783,17 @@
       <c r="F23" s="8">
         <v>110</v>
       </c>
-      <c r="G23" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G23" s="10">
+        <v>50</v>
+      </c>
+      <c r="H23" s="10">
+        <v>50</v>
+      </c>
+      <c r="I23" s="10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
         <v>99</v>
       </c>
@@ -1678,11 +1812,17 @@
       <c r="F24" s="8">
         <v>116</v>
       </c>
-      <c r="G24" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G24" s="10">
+        <v>50</v>
+      </c>
+      <c r="H24" s="10">
+        <v>50</v>
+      </c>
+      <c r="I24" s="10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
         <v>99</v>
       </c>
@@ -1701,11 +1841,17 @@
       <c r="F25" s="8">
         <v>115</v>
       </c>
-      <c r="G25" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G25" s="10">
+        <v>50</v>
+      </c>
+      <c r="H25" s="10">
+        <v>50</v>
+      </c>
+      <c r="I25" s="10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
         <v>99</v>
       </c>
@@ -1724,11 +1870,17 @@
       <c r="F26" s="8">
         <v>110</v>
       </c>
-      <c r="G26" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G26" s="10">
+        <v>50</v>
+      </c>
+      <c r="H26" s="10">
+        <v>50</v>
+      </c>
+      <c r="I26" s="10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
         <v>99</v>
       </c>
@@ -1747,11 +1899,17 @@
       <c r="F27" s="8">
         <v>110</v>
       </c>
-      <c r="G27" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G27" s="10">
+        <v>50</v>
+      </c>
+      <c r="H27" s="10">
+        <v>50</v>
+      </c>
+      <c r="I27" s="10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
         <v>99</v>
       </c>
@@ -1770,11 +1928,17 @@
       <c r="F28" s="8">
         <v>110</v>
       </c>
-      <c r="G28" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G28" s="10">
+        <v>50</v>
+      </c>
+      <c r="H28" s="10">
+        <v>50</v>
+      </c>
+      <c r="I28" s="10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
         <v>106</v>
       </c>
@@ -1793,11 +1957,17 @@
       <c r="F29" s="8">
         <v>55</v>
       </c>
-      <c r="G29" s="8">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G29" s="10">
+        <v>0</v>
+      </c>
+      <c r="H29" s="10">
+        <v>50</v>
+      </c>
+      <c r="I29" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
         <v>106</v>
       </c>
@@ -1816,11 +1986,17 @@
       <c r="F30" s="8">
         <v>55</v>
       </c>
-      <c r="G30" s="8">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G30" s="10">
+        <v>0</v>
+      </c>
+      <c r="H30" s="10">
+        <v>50</v>
+      </c>
+      <c r="I30" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
         <v>110</v>
       </c>
@@ -1839,11 +2015,17 @@
       <c r="F31" s="8">
         <v>110</v>
       </c>
-      <c r="G31" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G31" s="10">
+        <v>50</v>
+      </c>
+      <c r="H31" s="10">
+        <v>50</v>
+      </c>
+      <c r="I31" s="10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
         <v>110</v>
       </c>
@@ -1862,11 +2044,17 @@
       <c r="F32" s="8">
         <v>110</v>
       </c>
-      <c r="G32" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G32" s="10">
+        <v>50</v>
+      </c>
+      <c r="H32" s="10">
+        <v>50</v>
+      </c>
+      <c r="I32" s="10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
         <v>110</v>
       </c>
@@ -1885,11 +2073,17 @@
       <c r="F33" s="8">
         <v>110</v>
       </c>
-      <c r="G33" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G33" s="10">
+        <v>50</v>
+      </c>
+      <c r="H33" s="10">
+        <v>50</v>
+      </c>
+      <c r="I33" s="10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
         <v>110</v>
       </c>
@@ -1908,11 +2102,17 @@
       <c r="F34" s="8">
         <v>110</v>
       </c>
-      <c r="G34" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G34" s="10">
+        <v>50</v>
+      </c>
+      <c r="H34" s="10">
+        <v>50</v>
+      </c>
+      <c r="I34" s="10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
         <v>110</v>
       </c>
@@ -1931,11 +2131,17 @@
       <c r="F35" s="8">
         <v>70</v>
       </c>
-      <c r="G35" s="8">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G35" s="10">
+        <v>0</v>
+      </c>
+      <c r="H35" s="10">
+        <v>50</v>
+      </c>
+      <c r="I35" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
         <v>110</v>
       </c>
@@ -1954,11 +2160,17 @@
       <c r="F36" s="8">
         <v>51</v>
       </c>
-      <c r="G36" s="8">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G36" s="10">
+        <v>0</v>
+      </c>
+      <c r="H36" s="10">
+        <v>50</v>
+      </c>
+      <c r="I36" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="8" t="s">
         <v>110</v>
       </c>
@@ -1977,11 +2189,17 @@
       <c r="F37" s="8">
         <v>55</v>
       </c>
-      <c r="G37" s="8">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G37" s="10">
+        <v>0</v>
+      </c>
+      <c r="H37" s="10">
+        <v>50</v>
+      </c>
+      <c r="I37" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="8" t="s">
         <v>110</v>
       </c>
@@ -2000,11 +2218,17 @@
       <c r="F38" s="8">
         <v>95</v>
       </c>
-      <c r="G38" s="8">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G38" s="10">
+        <v>0</v>
+      </c>
+      <c r="H38" s="10">
+        <v>50</v>
+      </c>
+      <c r="I38" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="8" t="s">
         <v>110</v>
       </c>
@@ -2023,11 +2247,17 @@
       <c r="F39" s="8">
         <v>55</v>
       </c>
-      <c r="G39" s="8">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G39" s="10">
+        <v>0</v>
+      </c>
+      <c r="H39" s="10">
+        <v>50</v>
+      </c>
+      <c r="I39" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
         <v>121</v>
       </c>
@@ -2046,11 +2276,17 @@
       <c r="F40" s="8">
         <v>110</v>
       </c>
-      <c r="G40" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G40" s="10">
+        <v>50</v>
+      </c>
+      <c r="H40" s="10">
+        <v>50</v>
+      </c>
+      <c r="I40" s="10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="8" t="s">
         <v>121</v>
       </c>
@@ -2069,11 +2305,17 @@
       <c r="F41" s="8">
         <v>110</v>
       </c>
-      <c r="G41" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G41" s="10">
+        <v>50</v>
+      </c>
+      <c r="H41" s="10">
+        <v>50</v>
+      </c>
+      <c r="I41" s="10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
         <v>121</v>
       </c>
@@ -2092,11 +2334,17 @@
       <c r="F42" s="8">
         <v>110</v>
       </c>
-      <c r="G42" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G42" s="10">
+        <v>50</v>
+      </c>
+      <c r="H42" s="10">
+        <v>50</v>
+      </c>
+      <c r="I42" s="10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="8" t="s">
         <v>121</v>
       </c>
@@ -2115,11 +2363,17 @@
       <c r="F43" s="8">
         <v>55</v>
       </c>
-      <c r="G43" s="8">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G43" s="10">
+        <v>0</v>
+      </c>
+      <c r="H43" s="10">
+        <v>50</v>
+      </c>
+      <c r="I43" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="8" t="s">
         <v>121</v>
       </c>
@@ -2138,11 +2392,17 @@
       <c r="F44" s="8">
         <v>55</v>
       </c>
-      <c r="G44" s="8">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G44" s="10">
+        <v>0</v>
+      </c>
+      <c r="H44" s="10">
+        <v>50</v>
+      </c>
+      <c r="I44" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="8" t="s">
         <v>121</v>
       </c>
@@ -2161,11 +2421,17 @@
       <c r="F45" s="8">
         <v>109</v>
       </c>
-      <c r="G45" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G45" s="10">
+        <v>50</v>
+      </c>
+      <c r="H45" s="10">
+        <v>50</v>
+      </c>
+      <c r="I45" s="10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>126</v>
       </c>
@@ -2183,7 +2449,7 @@
       </c>
       <c r="G47">
         <f>SUM(G5:G45)</f>
-        <v>3650</v>
+        <v>1600</v>
       </c>
     </row>
   </sheetData>
